--- a/biology/Botanique/Jardin_de_Saint-Adrien/Jardin_de_Saint-Adrien.xlsx
+++ b/biology/Botanique/Jardin_de_Saint-Adrien/Jardin_de_Saint-Adrien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin de Saint-Adrien se trouve dans le département de l'Hérault, à proximité de la sortie N62 de l'autoroute A75, sur la route départementale qui mène à la commune de Servian.
 Ce site occupe l'emplacement de l'ancienne carrière de pierre Saint-Adrien. Il a été aménagé en jardin paysager, sur l'emplacement d'une ancienne carrière transformée en décharge. Le jardin est une propriété privée exploitée commercialement[note 1].
-Le 5 octobre 2017, un cambrioleur y est abattu par le propriétaire, Daniel Malgouyres, après s'être introduit sur les lieux avec un complice. Alors qu'il plaidait la légitime défense, Daniel Malgouyres a été accusé d'avoir organisé toute l’affaire afin d'effrayer sa femme, avec qui il était en instance de divorce, et du lui voler de l'argent. Fin 2021, la cour d’assises de l'Hérault le condamne à 18 ans de prison, une peine réduite à 15 ans en appel[1],[2].
+Le 5 octobre 2017, un cambrioleur y est abattu par le propriétaire, Daniel Malgouyres, après s'être introduit sur les lieux avec un complice. Alors qu'il plaidait la légitime défense, Daniel Malgouyres a été accusé d'avoir organisé toute l’affaire afin d'effrayer sa femme, avec qui il était en instance de divorce, et du lui voler de l'argent. Fin 2021, la cour d’assises de l'Hérault le condamne à 18 ans de prison, une peine réduite à 15 ans en appel,.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin occupe l'emplacement d'une ancienne carrière de tuf basaltique exploitée depuis le Moyen Âge jusqu'au milieu du XIXe siècle. La carrière a été abandonnée et servait de décharge de gravats. Les tufs proviennent des volcan de Saint-Thibéry et de celui d'Agde. Les carriers y ont taillé des cavités ou des marches sombres et géométriques.
 Daniel Malgouyres, le réalisateur du jardin, fils de viticulteur, a joué, enfant, dans ces carrières quand il accompagnait son père à la vigne. Adulte, il les a achetées avec le projet de les réhabiliter[note 2]. Avec l'aide de son épouse Françoise, il va ainsi débroussailler les genêts et les ronces, vider les gravats et les carcasses de voitures, combler certains vides.
@@ -547,7 +561,9 @@
           <t>Techniques des anciens carriers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascicule des auteurs et leur site internet présentent une reconstitution des techniques anciennes des carriers. Il subsistait sur le site une ancienne cabane où devaient être entreposés des escoudes, des masses et des coins[note 3].
 </t>
@@ -578,19 +594,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le tuf est imperméable. Le fond du banc de pierre n'a pas été atteint, les bassins retiennent l'eau naturellement. L'eau, élément essentiel du jardin, provient de retenues collinaires, elle est acheminée par des canaux.
-Les bassins
-Plusieurs bassins ont été aménagés, utilisant les découpes laissées en place, avec leurs « marches » dont les concepteurs ont tiré le meilleur parti. Des plantes aquatiques comme les myriophylles, les nymphéas, scirpes ont été installées au fond et sur les bords des bassins pour établir un écosystème aquatique. Des algues sont venues[note 4]. Des poissons ont été introduits.
-Faune
-Des poissons ont été introduits :
-carpe koï,
-carpe amour,
-black bass.
-Les statues
-En bordure d'un bassin, a été sculptée et modelée la statue d'une jeune fille allongée : la fontaine de Philia, déesse grecque de l'amitié, pourvue d'une chevelure végétale du plus bel effet.
-Les végétaux</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tuf est imperméable. Le fond du banc de pierre n'a pas été atteint, les bassins retiennent l'eau naturellement. L'eau, élément essentiel du jardin, provient de retenues collinaires, elle est acheminée par des canaux.
+</t>
         </is>
       </c>
     </row>
@@ -615,10 +624,125 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les bassins</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs bassins ont été aménagés, utilisant les découpes laissées en place, avec leurs « marches » dont les concepteurs ont tiré le meilleur parti. Des plantes aquatiques comme les myriophylles, les nymphéas, scirpes ont été installées au fond et sur les bords des bassins pour établir un écosystème aquatique. Des algues sont venues[note 4]. Des poissons ont été introduits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jardin_de_Saint-Adrien</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Saint-Adrien</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Des poissons ont été introduits :
+carpe koï,
+carpe amour,
+black bass.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jardin_de_Saint-Adrien</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Saint-Adrien</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les statues</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En bordure d'un bassin, a été sculptée et modelée la statue d'une jeune fille allongée : la fontaine de Philia, déesse grecque de l'amitié, pourvue d'une chevelure végétale du plus bel effet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jardin_de_Saint-Adrien</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Saint-Adrien</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protection de la nature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin de Saint-Adrien abrite un couple de grand-ducs, espèce hautement protégée. Ces oiseaux se reproduisent à l'abri des arbres et bâtiments. Le couple niche dans un donjon reconstitué[note 5]. Le voisinage du plan d'eau est un élément favorable à l'oiseau de proie nocturne.
 De nombreux passereaux, des cygnes, des gibiers d'eau et autres migrateurs fréquentent les plans d'eau et leurs alentours.
@@ -626,38 +750,40 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jardin_de_Saint-Adrien</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jardin_de_Saint-Adrien</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jardin_de_Saint-Adrien</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Saint-Adrien</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distinctions obtenues</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Cette réalisation a obtenu divers labels :
 Jardin remarquable (Ministère de la culture),
 Prix Bonpland 2000,
 Top cinq des Parcs de France,
 Label : Sites d'exception en Languedoc,
-France 2 : lauréat 2013 de l'émission Le jardin préféré des Français[1].</t>
+France 2 : lauréat 2013 de l'émission Le jardin préféré des Français.</t>
         </is>
       </c>
     </row>
